--- a/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
+++ b/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.97</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
+++ b/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
+++ b/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
+++ b/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
+++ b/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.38</v>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.66</v>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.66</v>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7938</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
+++ b/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.55</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.38</v>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3585</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2128,14 +2193,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.66</v>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2144,14 +2231,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.66</v>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8667</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2160,13 +2269,1155 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6767</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5990</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
+++ b/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3300,7 +3301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3311,17 +3312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3331,14 +3352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.61</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3347,14 +3390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.55</v>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3363,14 +3428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.38</v>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3379,14 +3466,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.66</v>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4540</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3395,14 +3504,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.66</v>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3726</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3411,13 +3542,1545 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2939</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8203</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7669</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6722</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5361</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
+++ b/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>19.73</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>13.61</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>6.55</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>1.38</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.66</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,11 +569,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0.66</v>
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -600,6 +617,1996 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0230</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5552</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9752</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8352</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7936</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7214</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4467</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城安心回报混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011901</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013869</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013870</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011902</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015965</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城安心回报混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2245,7 +4252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3479,7 +5486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4333,7 +6340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4693,7 +6700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4863,7 +6870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4995,7 +7002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
+++ b/数据整理/stocks/A股/科创板/688066-航天宏图.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>18.68</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>19.73</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>13.61</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>6.55</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>1.38</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.66</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8">
@@ -585,11 +586,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0.66</v>
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -616,7 +633,2889 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6807</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6257</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1980</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1534</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9834</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定开混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8912</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8437</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8177</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7141</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4789</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城安心回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015026</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华增华混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013461</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015965</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城安心回报混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013007</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大摩ESG量化混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013462</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011901</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015027</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华增华混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011902</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2606,7 +5505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4252,7 +7151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5486,7 +8385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6340,7 +9239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6700,7 +9599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6870,7 +9769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7000,98 +9899,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8930</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>